--- a/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018xm\XM\JXGIS.JXTopsystem\JXGIS.JXTopsystem\Files\UploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018xm\XM\JXGIS.JXTopsystem\JXTopsys\JXTopsys\JXGIS.JXTopsystem\Files\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>市辖区</t>
   </si>
@@ -33,9 +33,6 @@
     <t>邮政编码</t>
   </si>
   <si>
-    <t>小区名称</t>
-  </si>
-  <si>
     <t>幢号</t>
   </si>
   <si>
@@ -64,10 +61,6 @@
   </si>
   <si>
     <t>孙思琦</t>
-  </si>
-  <si>
-    <t>道路名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>门牌号</t>
@@ -100,6 +93,10 @@
   <si>
     <t>集体宿舍</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -163,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,18 +173,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -364,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,73 +380,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,19 +722,18 @@
     <col min="5" max="5" width="11.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -776,306 +742,296 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="9">
         <v>314033</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="J2" s="24">
+      <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="18">
         <v>601</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="7">
+      <c r="M2" s="7">
         <v>15067390033</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>314033</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="23">
+      <c r="H3" s="17">
         <v>8</v>
       </c>
-      <c r="J3" s="24">
+      <c r="I3" s="17">
         <v>1</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="18">
         <v>602</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="M3" s="7">
         <v>15067390033</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9">
         <v>314033</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="H4" s="17">
         <v>8</v>
       </c>
-      <c r="J4" s="24">
+      <c r="I4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="J4" s="18">
         <v>603</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="M4" s="7">
         <v>15067390033</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
         <v>314033</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
         <v>258</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="10">
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18">
         <v>301</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M5" s="7">
         <v>15067390033</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9">
         <v>314033</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="E6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="17">
         <v>258</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="10">
+      <c r="G6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18">
         <v>302</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="M6" s="7">
         <v>15067390033</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9">
         <v>314033</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17">
         <v>258</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="10">
+      <c r="G7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18">
         <v>303</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="M7" s="7">
         <v>15067390033</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="9">
         <v>314033</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21">
         <v>258</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="10">
+      <c r="G8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22">
         <v>304</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="M8" s="7">
         <v>15067390033</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>市辖区</t>
   </si>
@@ -97,12 +97,22 @@
   <si>
     <t>小区名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制日期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -201,26 +211,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -233,9 +241,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -248,9 +254,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -263,84 +267,18 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -349,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,25 +303,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,44 +327,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,26 +649,26 @@
     <col min="13" max="13" width="16.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -757,277 +677,290 @@
       <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>314033</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
         <v>8</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="7">
         <v>601</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>314033</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="7">
         <v>602</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>314033</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="7">
         <v>603</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>314033</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="7">
         <v>258</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>301</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>314033</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="7">
         <v>258</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
         <v>302</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>314033</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="7">
         <v>258</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
         <v>303</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>314033</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="7">
         <v>258</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
         <v>304</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>15067390033</v>
       </c>
+      <c r="N8" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>市辖区</t>
   </si>
@@ -64,11 +64,11 @@
   </si>
   <si>
     <t>门牌号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宿舍名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>阳光社区</t>
@@ -96,7 +96,7 @@
   </si>
   <si>
     <t>小区名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申报单位</t>
@@ -104,6 +104,31 @@
   </si>
   <si>
     <t>编制日期</t>
+  </si>
+  <si>
+    <r>
+      <t>都新西路2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61弄</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广业路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广中南路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -113,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,15 +165,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,87 +223,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,44 +254,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,11 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,60 +554,62 @@
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -732,7 +649,12 @@
       <c r="M2" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="11">
+        <v>42887</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -770,7 +692,12 @@
       <c r="M3" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="11">
+        <v>42888</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -808,7 +735,12 @@
       <c r="M4" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="11">
+        <v>42889</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -846,7 +778,12 @@
       <c r="M5" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>42890</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -873,7 +810,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -884,7 +821,12 @@
       <c r="M6" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="11">
+        <v>42891</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -899,19 +841,17 @@
       <c r="D7" s="7">
         <v>314033</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="7">
-        <v>258</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <v>303</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -922,7 +862,12 @@
       <c r="M7" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="11">
+        <v>42892</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -937,19 +882,17 @@
       <c r="D8" s="7">
         <v>314033</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="7">
-        <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>304</v>
+        <v>76</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -960,7 +903,55 @@
       <c r="M8" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>314033</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7">
+        <v>104</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>401</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="6">
+        <v>15067390033</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="11">
+        <v>42894</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/住宅门牌上传模板.xlsx
@@ -13,13 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>市辖区</t>
   </si>
@@ -64,15 +68,15 @@
   </si>
   <si>
     <t>门牌号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宿舍名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>阳光社区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>南湖区</t>
@@ -88,19 +92,19 @@
   </si>
   <si>
     <t>巴黎都市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集体宿舍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小区名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>申报单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>编制日期</t>
@@ -120,15 +124,148 @@
       </rPr>
       <t>61弄</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>广业路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>广中南路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌规格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5*10CM</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5*11CM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5*12CM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5*13CM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5*14CM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -138,11 +275,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,6 +325,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -229,11 +392,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,17 +417,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,48 +719,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:O3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="8.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.125" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -600,31 +780,34 @@
       <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>25</v>
+      <c r="Q1" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="7">
-        <v>314033</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -643,31 +826,32 @@
       <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11">
+        <v>42887</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6">
+      <c r="O2" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="11">
-        <v>42887</v>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="7">
-        <v>314033</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -686,31 +870,32 @@
       <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="11">
+        <v>42888</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="11">
-        <v>42888</v>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="7">
-        <v>314033</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
@@ -729,31 +914,32 @@
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="11">
+        <v>42889</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="11">
-        <v>42889</v>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="7">
-        <v>314033</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -772,31 +958,34 @@
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="11">
+        <v>42890</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="6">
+      <c r="O5" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="11">
-        <v>42890</v>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="7">
-        <v>314033</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -815,31 +1004,34 @@
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="11">
+        <v>42891</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="11">
-        <v>42891</v>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="7">
-        <v>314033</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>26</v>
@@ -856,31 +1048,34 @@
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="11">
+        <v>42892</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="6">
+      <c r="O7" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="11">
-        <v>42892</v>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <v>314033</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>27</v>
@@ -897,31 +1092,34 @@
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="11">
+        <v>42893</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="6">
+      <c r="O8" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="11">
-        <v>42893</v>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>314033</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="7">
-        <v>314033</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>28</v>
@@ -940,22 +1138,50 @@
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="11">
+        <v>42894</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="6">
+      <c r="O9" s="6">
         <v>15067390033</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="11">
-        <v>42894</v>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>314033</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="4" max="16383" man="1"/>
+    <brk id="6" max="16383" man="1"/>
+    <brk id="7" max="16383" man="1"/>
+    <brk id="8" max="16383" man="1"/>
+    <brk id="9" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>